--- a/data/educacion.xlsx
+++ b/data/educacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e8fa1d2124e866a/Documentos/Programacion web/API Lanus inteligente/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD93ACA-0379-4907-91D0-A49E131D58B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="913" documentId="8_{0DD93ACA-0379-4907-91D0-A49E131D58B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{713D9D8F-CDF1-4F17-AF9C-DE2955376572}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="756" windowWidth="19416" windowHeight="10416" xr2:uid="{26126696-D2D4-46F9-90A0-4FF702049A42}"/>
+    <workbookView xWindow="-5355" yWindow="3345" windowWidth="10815" windowHeight="9360" xr2:uid="{26126696-D2D4-46F9-90A0-4FF702049A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="565">
   <si>
     <t>Nombre</t>
   </si>
@@ -586,6 +586,1149 @@
   </si>
   <si>
     <t>-58.36397744120664,-34.730989048281344</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Chaco</t>
+  </si>
+  <si>
+    <t>Rondeau</t>
+  </si>
+  <si>
+    <t>Ramón Cabrero</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Santa Faz</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Los Granjeritos</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Los Bajitos</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Durham</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Nuestra Señora de la Consolación</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes del Club Atlético Lanús</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Madre Teresa de Calcuta</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Merceditas</t>
+  </si>
+  <si>
+    <t>Pilcomayo</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes La Casa de Silvia</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Cultural Armenia</t>
+  </si>
+  <si>
+    <t>Choele Choel</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Niño Jesús</t>
+  </si>
+  <si>
+    <t>Anatole France</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Mi Casa</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes San Juan Bautista</t>
+  </si>
+  <si>
+    <t>Itapirú</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Sara Eccleston</t>
+  </si>
+  <si>
+    <t>25 de Mayo</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Jacarandá</t>
+  </si>
+  <si>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Madre Mercedes</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Vinrgen Niña</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Cristo Rey</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes María Montessori</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Del Norte</t>
+  </si>
+  <si>
+    <t>Juan B. Justo</t>
+  </si>
+  <si>
+    <t>Jardín de infantes Moderno de Educación Integral</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Blanca Nieves y Yo</t>
+  </si>
+  <si>
+    <t>Juncal</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Mundo Mágico</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes La Asunción</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Cascanueces</t>
+  </si>
+  <si>
+    <t>Piñiero</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Patito Feo</t>
+  </si>
+  <si>
+    <t>Palma</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes del Colegio Alemán de Lanús</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Madre Mercedes Vidal Rivas</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Valentín Alsina</t>
+  </si>
+  <si>
+    <t>Presidente Perón</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Piolín</t>
+  </si>
+  <si>
+    <t>Berón de Estrada</t>
+  </si>
+  <si>
+    <t>Jardín de infantes Pulgarín</t>
+  </si>
+  <si>
+    <t>Quintana</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Pizzurno de Enseñanza</t>
+  </si>
+  <si>
+    <t>Jardín de infantes Mi Casita</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Mater Ter Admirabilis</t>
+  </si>
+  <si>
+    <t>Talcahuano</t>
+  </si>
+  <si>
+    <t>Jean Jeares</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Victoria Kent</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Arco Iris</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Aprendijuegos</t>
+  </si>
+  <si>
+    <t>Guido</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Inmaculada Concepción (Emilie)</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Hogar Sagrado Corazón</t>
+  </si>
+  <si>
+    <t>Humauhuaca</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Juan XXIII</t>
+  </si>
+  <si>
+    <t>Hernandarias</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Sumari</t>
+  </si>
+  <si>
+    <t>Manuel Castro</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Charles Chaplin</t>
+  </si>
+  <si>
+    <t>Beltrán</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Mariano Moreno</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Gotitas</t>
+  </si>
+  <si>
+    <t>Achával</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Juan María Estrada</t>
+  </si>
+  <si>
+    <t>Piñeyro</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes María Reina</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Medalla Milagrosa</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Pastorcitos de Fátima</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes San Miguel Arcangel</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Ternuritas</t>
+  </si>
+  <si>
+    <t>Yerbal</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Pinocho</t>
+  </si>
+  <si>
+    <t>Jose María Moreno</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Estrella de Belén</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Del Castillo</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Angel de la Guarda</t>
+  </si>
+  <si>
+    <t>Pastor Ferreyra</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Luz de Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de Mayo </t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Eva Perón</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Alfonsina Storni</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Tiempo de Crecer</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Pulgarcito</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes El Pimpollito</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Santa Teresita</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Victoriano Arenas</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Los Leoncitos</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Crecer Jugando</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Lihuen Suyai</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Juana Manso</t>
+  </si>
+  <si>
+    <t>Coronel D'elia</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Martín Miguel de Güemes</t>
+  </si>
+  <si>
+    <t>Aristóbulo del Valle</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Mis Primeros Pasitos</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Mundo Maravilloso</t>
+  </si>
+  <si>
+    <t>Carlos Berg</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Corazones Mágicos</t>
+  </si>
+  <si>
+    <t>Méndez</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Gral Félix de Olazábal</t>
+  </si>
+  <si>
+    <t>Gral. Olazábal</t>
+  </si>
+  <si>
+    <t>Jardín de Infantes Raíces</t>
+  </si>
+  <si>
+    <t>Luján</t>
+  </si>
+  <si>
+    <t>-58.4058569,-34.6907127</t>
+  </si>
+  <si>
+    <t>-58.4005217,-34.6892514</t>
+  </si>
+  <si>
+    <t>Machain</t>
+  </si>
+  <si>
+    <t>-58.39947,-34.7138892</t>
+  </si>
+  <si>
+    <t>Coronel Murguiondo</t>
+  </si>
+  <si>
+    <t>-58.4128332,-34.6708624</t>
+  </si>
+  <si>
+    <t>-58.3448482,-34.7210795</t>
+  </si>
+  <si>
+    <t>-58.3841208,-34.7165119</t>
+  </si>
+  <si>
+    <t>-58.4292003,-34.7001696</t>
+  </si>
+  <si>
+    <t>-58.3875017,-34.7022654</t>
+  </si>
+  <si>
+    <t>-58.4088425,-34.6696461</t>
+  </si>
+  <si>
+    <t>-58.3871688,-34.7065978</t>
+  </si>
+  <si>
+    <t>-60.6968584,-31.6150035</t>
+  </si>
+  <si>
+    <t>Primaria Eccleston</t>
+  </si>
+  <si>
+    <t>Primaria Cultural Armenia</t>
+  </si>
+  <si>
+    <t>Primaria Cristo rey</t>
+  </si>
+  <si>
+    <t>Primaria Castro Barros</t>
+  </si>
+  <si>
+    <t>Primaria J.M. Estrada</t>
+  </si>
+  <si>
+    <t>Primaria Niño Jesús Adulto</t>
+  </si>
+  <si>
+    <t>Ituzaingo</t>
+  </si>
+  <si>
+    <t>Primaria Santo Cristo</t>
+  </si>
+  <si>
+    <t>Guarrachino</t>
+  </si>
+  <si>
+    <t>Primaria San Juan Bautista</t>
+  </si>
+  <si>
+    <t>Tte. Juan Domingo Perón</t>
+  </si>
+  <si>
+    <t>Primaria Instituto Mi Casa</t>
+  </si>
+  <si>
+    <t>Primaria Instituto del Norte</t>
+  </si>
+  <si>
+    <t>Primaria Santa Faz</t>
+  </si>
+  <si>
+    <t>Primaria La Asunción</t>
+  </si>
+  <si>
+    <t>Primaria San Miguel de Arcangel</t>
+  </si>
+  <si>
+    <t>Primaria Gruta Nuestra Señora de Lourdes</t>
+  </si>
+  <si>
+    <t>Guido Spano</t>
+  </si>
+  <si>
+    <t>Primaria Jacarandá</t>
+  </si>
+  <si>
+    <t>Primaria Lausanne</t>
+  </si>
+  <si>
+    <t>9 de Julio</t>
+  </si>
+  <si>
+    <t>Primaria Durham</t>
+  </si>
+  <si>
+    <t>Murgiondo</t>
+  </si>
+  <si>
+    <t>Primaria Insituto 9 de Julio</t>
+  </si>
+  <si>
+    <t>Cavia</t>
+  </si>
+  <si>
+    <t>Primaria Stella Maris</t>
+  </si>
+  <si>
+    <t>Primaria Instituto del Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Achaval</t>
+  </si>
+  <si>
+    <t>Primaria María Reina</t>
+  </si>
+  <si>
+    <t>Primaria Medalla Milagrosa</t>
+  </si>
+  <si>
+    <t>Primaria Nuestra Señora de Fátima</t>
+  </si>
+  <si>
+    <t>Hermana María Odilia Zaloznik</t>
+  </si>
+  <si>
+    <t>Primaria Sagrado Corazón</t>
+  </si>
+  <si>
+    <t>Primaria Santa Teresa</t>
+  </si>
+  <si>
+    <t>Primaria Inmaculada Concepción</t>
+  </si>
+  <si>
+    <t>Primaria Alemán</t>
+  </si>
+  <si>
+    <t>Maza</t>
+  </si>
+  <si>
+    <t>Primaria Hogar Sagrado Corazón</t>
+  </si>
+  <si>
+    <t>Primaria Juan XXIII</t>
+  </si>
+  <si>
+    <t>Primaria Del Castillo</t>
+  </si>
+  <si>
+    <t>Primaria Magdalena Brain</t>
+  </si>
+  <si>
+    <t>Instituto Pizzurno</t>
+  </si>
+  <si>
+    <t>Primaria Mariano Moreno</t>
+  </si>
+  <si>
+    <t>Primaria Pedro Giachín</t>
+  </si>
+  <si>
+    <t>Primaria Cristiana Evangélica</t>
+  </si>
+  <si>
+    <t>Primaria Albert Schweitzer</t>
+  </si>
+  <si>
+    <t>Lomas Valentinas</t>
+  </si>
+  <si>
+    <t>Primaria del Monte</t>
+  </si>
+  <si>
+    <t>Primaria Gustavo A. Becquer</t>
+  </si>
+  <si>
+    <t>Primaria del Sur</t>
+  </si>
+  <si>
+    <t>Jujuy</t>
+  </si>
+  <si>
+    <t>Primaria Charles Chaplin</t>
+  </si>
+  <si>
+    <t>E.P.B N° 1 Juan Bautista Alberdi</t>
+  </si>
+  <si>
+    <t>E.P.B N° 2 Mariano Moreno</t>
+  </si>
+  <si>
+    <t>E.P.B N°3 República de Brasil</t>
+  </si>
+  <si>
+    <t>Juan Domingo Perón</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 4  Remedios de Escalada de S. Martín</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 5 Marcelino Bordoy</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 6 Rafael Obligado</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 7  Domingo F. Sarmiento</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 8 Nuestra Señora de la Merced</t>
+  </si>
+  <si>
+    <t>Bouchard</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 9  General Güemes</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 10 Bartolomé Mitre</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 11 Congreso de Tucumán</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 12 Antártida Argentina</t>
+  </si>
+  <si>
+    <t>Remedios de Escalada</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 13 Hipólito Yrigoyen</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 14 Capitán H. Bouchard</t>
+  </si>
+  <si>
+    <t>Fray J. Lagos</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 15 Bernardino Rivadavia</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 16 Arturo Melo</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 17 Libetador Gral. San Martín</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 18 Fray Mamerto Esquiu</t>
+  </si>
+  <si>
+    <t>Madariaga</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 19  Yapeyú</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 20 Ejército de los Andes</t>
+  </si>
+  <si>
+    <t>José I. Rucci</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 21 Fray J. Sta. MarÍa de Oro</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 22 Fray Luis Beltrán</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 23 Fragata Libertad</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 24 Rosario Vera Peñaloza</t>
+  </si>
+  <si>
+    <t>Suipacha</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 25 Guillermo F. Gaebeler</t>
+  </si>
+  <si>
+    <t>Gral. Pico</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 26 Crucero Gral. San Martín</t>
+  </si>
+  <si>
+    <t>Dean Funes</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 27 Carlos Melo</t>
+  </si>
+  <si>
+    <t>Ferré</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 28 Tte. Manuel Origone</t>
+  </si>
+  <si>
+    <t>Carlos Gardel</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 29 - Alte. Guillermo Brown</t>
+  </si>
+  <si>
+    <t>Cnel Ramos</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 30 Holanda</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 31 Tambor de Tacuarí</t>
+  </si>
+  <si>
+    <t>Aguapey</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 32 Carlos María Biedma</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 33 Sargento Cabral</t>
+  </si>
+  <si>
+    <t>De la Peña</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 34 VÍctor Mercante</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 35 Nicolás Avellaneda</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 36 Gral. Manuel Belgrano</t>
+  </si>
+  <si>
+    <t>Villa de Luján</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 37</t>
+  </si>
+  <si>
+    <t>Kloosterman</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 38 Francisco Gurruchaga</t>
+  </si>
+  <si>
+    <t>Jean Jaures</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 39</t>
+  </si>
+  <si>
+    <t>Cazón</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 40 R. de Escalada de S. Martín</t>
+  </si>
+  <si>
+    <t>Villegas</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 41 José Manuel Estrada</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 42 Mariano Moreno</t>
+  </si>
+  <si>
+    <t>Monseñor Hladnik</t>
+  </si>
+  <si>
+    <t>Marcos Avellaneda</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 46 Paula Albarracín</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 45 Comdte. Luis Piedrabuena</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 43 Francisco Narciso Laprida</t>
+  </si>
+  <si>
+    <t>Don Orione</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 44 Cristóbal Colón</t>
+  </si>
+  <si>
+    <t>José León Suarez</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 48 República de Francia</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 49 José Hernández</t>
+  </si>
+  <si>
+    <t>José María Moreno</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 50 Francisco Narciso Laprida</t>
+  </si>
+  <si>
+    <t>Posadas</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 62</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 66</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 52 Francisco Narciso Laprida</t>
+  </si>
+  <si>
+    <t>Pringles</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 53 Malvinas Argentinas</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 54 Islas Malvinas</t>
+  </si>
+  <si>
+    <t>Santiago Plaul</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 55 Florentino Ameghino Laprida</t>
+  </si>
+  <si>
+    <t>Santiago Derqui</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 56 Perito Moreno</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 57 Gral. de Div. Manuel Savio</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 58 Mercedes de San Martín</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 59 Gabriela Mistral</t>
+  </si>
+  <si>
+    <t>Yatay</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 60 Almafuerte</t>
+  </si>
+  <si>
+    <t>Pichincha</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 63 Esteban de Luca</t>
+  </si>
+  <si>
+    <t>Yapeyú</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 64 Fragata Pte. Sarmiento</t>
+  </si>
+  <si>
+    <t>Juan Farrel</t>
+  </si>
+  <si>
+    <t>Condarco</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 67 20 de Junio</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 69 Buenos Aires</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 70 Nicolás Avellaneda</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 72 Pedro Medrano</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 74 República de Italia</t>
+  </si>
+  <si>
+    <t>Los Patos</t>
+  </si>
+  <si>
+    <t>E.P.B. N° 77 Santa Cruz</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 1</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 2</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 3</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 4</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 5</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 6</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 7</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 8</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 9</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 10</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 11</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 12</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 13</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 15</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 16</t>
+  </si>
+  <si>
+    <t>E.E.M. Nº 17</t>
+  </si>
+  <si>
+    <t>Carlos Casares</t>
+  </si>
+  <si>
+    <t>Coronel Mamberti</t>
+  </si>
+  <si>
+    <t>Gral. Arias</t>
+  </si>
+  <si>
+    <t>Coronel Erezcano</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Joaquín V. Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENS Adultos 451 </t>
+  </si>
+  <si>
+    <t>CENS Adultos 452</t>
+  </si>
+  <si>
+    <t>CENS Adultos 453</t>
+  </si>
+  <si>
+    <t>Técnica N° 1</t>
+  </si>
+  <si>
+    <t>Técnica N° 2</t>
+  </si>
+  <si>
+    <t>Técnica N° 3</t>
+  </si>
+  <si>
+    <t>Técnica N° 4</t>
+  </si>
+  <si>
+    <t>Técnica N° 5</t>
+  </si>
+  <si>
+    <t>Técnica N° 6</t>
+  </si>
+  <si>
+    <t>Técnica N° 7</t>
+  </si>
+  <si>
+    <t>Técnica N° 8</t>
+  </si>
+  <si>
+    <t>Técnica N° 9</t>
+  </si>
+  <si>
+    <t>Acevedo</t>
+  </si>
+  <si>
+    <t>General Arias</t>
+  </si>
+  <si>
+    <t>29 de Septiembre</t>
+  </si>
+  <si>
+    <t>Insituto Superior N° 175</t>
+  </si>
+  <si>
+    <t>Instituto de Formación Docente N° 11</t>
+  </si>
+  <si>
+    <t>ISFD Apoyo y Perfec. Educ. Iape</t>
+  </si>
+  <si>
+    <t>Tacuari</t>
+  </si>
+  <si>
+    <t>Instituto Cristo Rey</t>
+  </si>
+  <si>
+    <t>Escuela De Emf. Cruz Roja Lanús</t>
+  </si>
+  <si>
+    <t>Inst. San Agustín Superior</t>
+  </si>
+  <si>
+    <t>Insituto para la formación e investigación hopitalaria</t>
+  </si>
+  <si>
+    <t>Instituto Superior de Formación Docente Eccleston</t>
+  </si>
+  <si>
+    <t>Secundaria Inmaculada Concepción</t>
+  </si>
+  <si>
+    <t>Primaria Instituto Centro de Adultos Niño Jesús</t>
+  </si>
+  <si>
+    <t>Primaria instituto Juan Ramón Jiménez</t>
+  </si>
+  <si>
+    <t>Primaria instituto Gran José de San Martín</t>
+  </si>
+  <si>
+    <t>Secundaria Cristo Rey</t>
+  </si>
+  <si>
+    <t>Secundaria Del Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Matanza</t>
+  </si>
+  <si>
+    <t>Secundaria Jacarandá</t>
+  </si>
+  <si>
+    <t>Secundaria J. M. Estrada</t>
+  </si>
+  <si>
+    <t>Secundaria Insituto Moderno de Educación Integral</t>
+  </si>
+  <si>
+    <t>Secundaria Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>Secundaria Santo Cristo</t>
+  </si>
+  <si>
+    <t>Pergamino</t>
+  </si>
+  <si>
+    <t>Secundaria Medalla Milagrosa</t>
+  </si>
+  <si>
+    <t>Secundaria Instituto San Agustín</t>
+  </si>
+  <si>
+    <t>Secundaria Durham</t>
+  </si>
+  <si>
+    <t>Secundaria Cambazyán</t>
+  </si>
+  <si>
+    <t>Secundaria San Juan Bautista</t>
+  </si>
+  <si>
+    <t>Secundaria Sagrado CorazÓn Alcal</t>
+  </si>
+  <si>
+    <t>Secundaria San Francisco de Asís</t>
+  </si>
+  <si>
+    <t>Secundaria San Miguel Arcángel</t>
+  </si>
+  <si>
+    <t>Secundaria Santa Teresa</t>
+  </si>
+  <si>
+    <t>Secundaria Mi Casa</t>
+  </si>
+  <si>
+    <t>Secundaria Colegio Lausanne</t>
+  </si>
+  <si>
+    <t>Secundaria Instituto Pizzurno de Educación Integral</t>
+  </si>
+  <si>
+    <t>Secundaria Colegio Alemán</t>
+  </si>
+  <si>
+    <t>Secundaria Jesús de Nazareth</t>
+  </si>
+  <si>
+    <t>Secundaria Remedios de Escalada</t>
+  </si>
+  <si>
+    <t>Secundaria Mariano Moreno</t>
+  </si>
+  <si>
+    <t>Secundaria Cristiana Evangelista</t>
+  </si>
+  <si>
+    <t>Tagle</t>
+  </si>
+  <si>
+    <t>Secundaria M. Abrain</t>
+  </si>
+  <si>
+    <t>Secundaria Norte</t>
+  </si>
+  <si>
+    <t>Secundaria Santa Faz</t>
+  </si>
+  <si>
+    <t>Secundaria El Castillo</t>
+  </si>
+  <si>
+    <t>Ocampo</t>
+  </si>
+  <si>
+    <t>Secundaria Eccleston</t>
+  </si>
+  <si>
+    <t>Secundaria A. Schweltzer</t>
+  </si>
+  <si>
+    <t>Piñeiro</t>
+  </si>
+  <si>
+    <t>Secundaria Gruta Ntra. Sra. De Lourdes</t>
+  </si>
+  <si>
+    <t>Secundaria Nazareth Adulto</t>
+  </si>
+  <si>
+    <t>Secundaria Dr. José C. Paz</t>
+  </si>
+  <si>
+    <t>Secundaria Técnica María Reina</t>
+  </si>
+  <si>
+    <t>Inst. Superior Lanús - AMGAA Guardavida</t>
+  </si>
+  <si>
+    <t>UNLA (ABREMATE )</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Lanús</t>
+  </si>
+  <si>
+    <t>Universidad John F. Kennedy</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 501 Enrique Finochietto (discapacidad motriz)</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 502 (domiciliaria)</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 503 (sordos e hipoacúsicos)</t>
+  </si>
+  <si>
+    <t>Tuyutí</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 504 Down (retardo mental)</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 506 Ciegos (ciegos y discriminados visuales)</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 507 (retardo mental)</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 508 (discapacidad motriz)</t>
+  </si>
+  <si>
+    <t>Escuela Especial N° 509 (severos. trastornos)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +1758,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -703,11 +1846,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -720,6 +1900,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,17 +2227,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A765F55-9495-46B3-AC30-D17FCB7B8B2E}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2268,6 +3462,3732 @@
         <v>183</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1957</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1251</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="12">
+        <v>3582</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="12">
+        <v>898</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="12">
+        <v>509</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" s="12">
+        <v>2007</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="12">
+        <v>697</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="12">
+        <v>3967</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="12">
+        <v>945</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="12">
+        <v>555</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1744</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1543</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="12">
+        <v>860</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="12">
+        <v>793</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="12">
+        <v>548</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="12">
+        <v>2739</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="12">
+        <v>2453</v>
+      </c>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="12">
+        <v>2549</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="12">
+        <v>713</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1956</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="12">
+        <v>5302</v>
+      </c>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="12">
+        <v>1766</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="12">
+        <v>2871</v>
+      </c>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="12">
+        <v>1111</v>
+      </c>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="12">
+        <v>428</v>
+      </c>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" s="12">
+        <v>3453</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="12">
+        <v>2642</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="12">
+        <v>2055</v>
+      </c>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="12">
+        <v>739</v>
+      </c>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" s="12">
+        <v>4323</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E92" s="12">
+        <v>328</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="12">
+        <v>3178</v>
+      </c>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="12">
+        <v>3860</v>
+      </c>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="12">
+        <v>2667</v>
+      </c>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" s="12">
+        <v>2356</v>
+      </c>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="12">
+        <v>2169</v>
+      </c>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" s="12">
+        <v>2925</v>
+      </c>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="12">
+        <v>4355</v>
+      </c>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="12">
+        <v>2456</v>
+      </c>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="12">
+        <v>3970</v>
+      </c>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E102" s="12">
+        <v>3327</v>
+      </c>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" s="12">
+        <v>319</v>
+      </c>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="12">
+        <v>5657</v>
+      </c>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105" s="12">
+        <v>3640</v>
+      </c>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" s="12">
+        <v>433</v>
+      </c>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="12">
+        <v>2530</v>
+      </c>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" s="12">
+        <v>4250</v>
+      </c>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="12">
+        <v>3144</v>
+      </c>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="12">
+        <v>2406</v>
+      </c>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E111" s="12">
+        <v>5746</v>
+      </c>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="12">
+        <v>1318</v>
+      </c>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E113" s="12">
+        <v>4175</v>
+      </c>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" s="12">
+        <v>4357</v>
+      </c>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="12">
+        <v>3324</v>
+      </c>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E116" s="12">
+        <v>2819</v>
+      </c>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="12">
+        <v>4136</v>
+      </c>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="12">
+        <v>3680</v>
+      </c>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="12">
+        <v>4025</v>
+      </c>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="12">
+        <v>1538</v>
+      </c>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="12">
+        <v>2278</v>
+      </c>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="12">
+        <v>238</v>
+      </c>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="12">
+        <v>82</v>
+      </c>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="12">
+        <v>2065</v>
+      </c>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1073</v>
+      </c>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="12">
+        <v>2615</v>
+      </c>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1369</v>
+      </c>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E128" s="12">
+        <v>3588</v>
+      </c>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" s="12">
+        <v>2369</v>
+      </c>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" s="12">
+        <v>4002</v>
+      </c>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" s="12">
+        <v>2046</v>
+      </c>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="12">
+        <v>4606</v>
+      </c>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" s="14">
+        <v>3256</v>
+      </c>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E134" s="11">
+        <v>793</v>
+      </c>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E135" s="12">
+        <v>3111</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="12">
+        <v>2521</v>
+      </c>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1061</v>
+      </c>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="12">
+        <v>441</v>
+      </c>
+      <c r="F138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1145</v>
+      </c>
+      <c r="F139" s="7"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E140" s="12">
+        <v>1749</v>
+      </c>
+      <c r="F140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E141" s="12">
+        <v>2998</v>
+      </c>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="12">
+        <v>1555</v>
+      </c>
+      <c r="F142" s="7"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E143" s="12">
+        <v>2159</v>
+      </c>
+      <c r="F143" s="7"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1960</v>
+      </c>
+      <c r="F144" s="7"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="12">
+        <v>1111</v>
+      </c>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="12">
+        <v>2406</v>
+      </c>
+      <c r="F146" s="7"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E147" s="12">
+        <v>1062</v>
+      </c>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E148" s="12">
+        <v>537</v>
+      </c>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E149" s="12">
+        <v>1760</v>
+      </c>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E150" s="12">
+        <v>890</v>
+      </c>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E151" s="12">
+        <v>2041</v>
+      </c>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" s="12">
+        <v>1762</v>
+      </c>
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E153" s="12">
+        <v>2870</v>
+      </c>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E154" s="12">
+        <v>2530</v>
+      </c>
+      <c r="F154" s="7"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E155" s="12">
+        <v>4250</v>
+      </c>
+      <c r="F155" s="7"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E156" s="12">
+        <v>3572</v>
+      </c>
+      <c r="F156" s="7"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="12">
+        <v>3870</v>
+      </c>
+      <c r="F157" s="7"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E158" s="12">
+        <v>2763</v>
+      </c>
+      <c r="F158" s="7"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E159" s="12">
+        <v>4355</v>
+      </c>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E160" s="12">
+        <v>2650</v>
+      </c>
+      <c r="F160" s="7"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E161" s="12">
+        <v>2456</v>
+      </c>
+      <c r="F161" s="7"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E162" s="12">
+        <v>3970</v>
+      </c>
+      <c r="F162" s="7"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E163" s="12">
+        <v>4321</v>
+      </c>
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E164" s="12">
+        <v>3327</v>
+      </c>
+      <c r="F164" s="7"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="12">
+        <v>3178</v>
+      </c>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E166" s="12">
+        <v>3237</v>
+      </c>
+      <c r="F166" s="7"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E167" s="12">
+        <v>1318</v>
+      </c>
+      <c r="F167" s="7"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E168" s="12">
+        <v>4175</v>
+      </c>
+      <c r="F168" s="7"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E169" s="12">
+        <v>422</v>
+      </c>
+      <c r="F169" s="7"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E170" s="12">
+        <v>1145</v>
+      </c>
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171" s="12">
+        <v>328</v>
+      </c>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E172" s="12">
+        <v>597</v>
+      </c>
+      <c r="F172" s="7"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E173" s="12">
+        <v>3931</v>
+      </c>
+      <c r="F173" s="7"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E174" s="12">
+        <v>4323</v>
+      </c>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E175" s="12">
+        <v>1463</v>
+      </c>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E176" s="14">
+        <v>319</v>
+      </c>
+      <c r="F176" s="10"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E177" s="11">
+        <v>2412</v>
+      </c>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178" s="12">
+        <v>151</v>
+      </c>
+      <c r="F178" s="7"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E179" s="12">
+        <v>3018</v>
+      </c>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" s="12">
+        <v>815</v>
+      </c>
+      <c r="F180" s="7"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E181" s="12">
+        <v>1847</v>
+      </c>
+      <c r="F181" s="7"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E182" s="12">
+        <v>1762</v>
+      </c>
+      <c r="F182" s="7"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E183" s="12">
+        <v>1217</v>
+      </c>
+      <c r="F183" s="7"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E184" s="12">
+        <v>370</v>
+      </c>
+      <c r="F184" s="7"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E185" s="12">
+        <v>5005</v>
+      </c>
+      <c r="F185" s="7"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186" s="12">
+        <v>1660</v>
+      </c>
+      <c r="F186" s="7"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E187" s="12">
+        <v>1503</v>
+      </c>
+      <c r="F187" s="7"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E188" s="12">
+        <v>1480</v>
+      </c>
+      <c r="F188" s="7"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E189" s="12">
+        <v>4230</v>
+      </c>
+      <c r="F189" s="7"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E190" s="12">
+        <v>2113</v>
+      </c>
+      <c r="F190" s="7"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E191" s="12">
+        <v>702</v>
+      </c>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E192" s="12">
+        <v>4453</v>
+      </c>
+      <c r="F192" s="7"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E193" s="12">
+        <v>3024</v>
+      </c>
+      <c r="F193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E194" s="12">
+        <v>1960</v>
+      </c>
+      <c r="F194" s="7"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E195" s="12">
+        <v>1091</v>
+      </c>
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E196" s="12">
+        <v>958</v>
+      </c>
+      <c r="F196" s="7"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E197" s="12">
+        <v>1153</v>
+      </c>
+      <c r="F197" s="7"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E198" s="12">
+        <v>1758</v>
+      </c>
+      <c r="F198" s="7"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E199" s="12">
+        <v>820</v>
+      </c>
+      <c r="F199" s="7"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E200" s="12">
+        <v>3098</v>
+      </c>
+      <c r="F200" s="7"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E201" s="12">
+        <v>2002</v>
+      </c>
+      <c r="F201" s="7"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E202" s="12">
+        <v>4436</v>
+      </c>
+      <c r="F202" s="7"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E203" s="12">
+        <v>2180</v>
+      </c>
+      <c r="F203" s="7"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E204" s="12">
+        <v>1011</v>
+      </c>
+      <c r="F204" s="7"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E205" s="12">
+        <v>64</v>
+      </c>
+      <c r="F205" s="7"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E206" s="12">
+        <v>3864</v>
+      </c>
+      <c r="F206" s="7"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E207" s="6">
+        <v>740</v>
+      </c>
+      <c r="F207" s="7"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E208" s="6">
+        <v>2597</v>
+      </c>
+      <c r="F208" s="7"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E209" s="6">
+        <v>2290</v>
+      </c>
+      <c r="F209" s="7"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E210" s="6">
+        <v>3800</v>
+      </c>
+      <c r="F210" s="7"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E211" s="6">
+        <v>4171</v>
+      </c>
+      <c r="F211" s="7"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E212" s="6">
+        <v>2389</v>
+      </c>
+      <c r="F212" s="7"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E213" s="6">
+        <v>1757</v>
+      </c>
+      <c r="F213" s="7"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E214" s="6">
+        <v>1502</v>
+      </c>
+      <c r="F214" s="7"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E215" s="6">
+        <v>510</v>
+      </c>
+      <c r="F215" s="7"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E216" s="6">
+        <v>361</v>
+      </c>
+      <c r="F216" s="7"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E217" s="6">
+        <v>3949</v>
+      </c>
+      <c r="F217" s="7"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E218" s="6">
+        <v>2757</v>
+      </c>
+      <c r="F218" s="7"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E219" s="6">
+        <v>1251</v>
+      </c>
+      <c r="F219" s="7"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E220" s="6">
+        <v>644</v>
+      </c>
+      <c r="F220" s="7"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E221" s="6">
+        <v>1253</v>
+      </c>
+      <c r="F221" s="7"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E222" s="6">
+        <v>4491</v>
+      </c>
+      <c r="F222" s="7"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E223" s="6">
+        <v>3942</v>
+      </c>
+      <c r="F223" s="7"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E224" s="6">
+        <v>2608</v>
+      </c>
+      <c r="F224" s="7"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E225" s="6">
+        <v>319</v>
+      </c>
+      <c r="F225" s="7"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E226" s="6">
+        <v>4200</v>
+      </c>
+      <c r="F226" s="7"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E227" s="6">
+        <v>3360</v>
+      </c>
+      <c r="F227" s="7"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E228" s="6">
+        <v>1832</v>
+      </c>
+      <c r="F228" s="7"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E229" s="6">
+        <v>1665</v>
+      </c>
+      <c r="F229" s="7"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E230" s="6">
+        <v>3640</v>
+      </c>
+      <c r="F230" s="7"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E231" s="6">
+        <v>1900</v>
+      </c>
+      <c r="F231" s="7"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E232" s="6">
+        <v>2351</v>
+      </c>
+      <c r="F232" s="7"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E233" s="6">
+        <v>2850</v>
+      </c>
+      <c r="F233" s="7"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E234" s="6">
+        <v>3200</v>
+      </c>
+      <c r="F234" s="7"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E235" s="6">
+        <v>3821</v>
+      </c>
+      <c r="F235" s="7"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E236" s="6">
+        <v>1155</v>
+      </c>
+      <c r="F236" s="7"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E237" s="6">
+        <v>3334</v>
+      </c>
+      <c r="F237" s="7"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E238" s="6">
+        <v>2322</v>
+      </c>
+      <c r="F238" s="7"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E239" s="6">
+        <v>1650</v>
+      </c>
+      <c r="F239" s="7"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E240" s="6">
+        <v>2475</v>
+      </c>
+      <c r="F240" s="7"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E241" s="6">
+        <v>2221</v>
+      </c>
+      <c r="F241" s="7"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E242" s="6">
+        <v>2651</v>
+      </c>
+      <c r="F242" s="7"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E243" s="6">
+        <v>4140</v>
+      </c>
+      <c r="F243" s="7"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E244" s="9">
+        <v>4551</v>
+      </c>
+      <c r="F244" s="10"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E245" s="11">
+        <v>958</v>
+      </c>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E246" s="12">
+        <v>1788</v>
+      </c>
+      <c r="F246" s="7"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E247" s="12">
+        <v>1770</v>
+      </c>
+      <c r="F247" s="7"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E248" s="12">
+        <v>2020</v>
+      </c>
+      <c r="F248" s="7"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E249" s="12">
+        <v>3864</v>
+      </c>
+      <c r="F249" s="7"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" s="12">
+        <v>3493</v>
+      </c>
+      <c r="F250" s="7"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E251" s="12">
+        <v>1217</v>
+      </c>
+      <c r="F251" s="7"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E252" s="12">
+        <v>1935</v>
+      </c>
+      <c r="F252" s="7"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E253" s="12">
+        <v>3240</v>
+      </c>
+      <c r="F253" s="7"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E254" s="12">
+        <v>1132</v>
+      </c>
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E255" s="12">
+        <v>4835</v>
+      </c>
+      <c r="F255" s="7"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E256" s="12">
+        <v>3225</v>
+      </c>
+      <c r="F256" s="7"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E257" s="12">
+        <v>2475</v>
+      </c>
+      <c r="F257" s="7"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E258" s="12">
+        <v>2875</v>
+      </c>
+      <c r="F258" s="7"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E259" s="12">
+        <v>750</v>
+      </c>
+      <c r="F259" s="7"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E260" s="14">
+        <v>3101</v>
+      </c>
+      <c r="F260" s="10"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E261" s="11">
+        <v>4231</v>
+      </c>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E262" s="12">
+        <v>2475</v>
+      </c>
+      <c r="F262" s="7"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E263" s="14">
+        <v>1762</v>
+      </c>
+      <c r="F263" s="10"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E264" s="11">
+        <v>4355</v>
+      </c>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E265" s="12">
+        <v>1538</v>
+      </c>
+      <c r="F265" s="7"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="E266" s="12">
+        <v>3339</v>
+      </c>
+      <c r="F266" s="7"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E267" s="12">
+        <v>537</v>
+      </c>
+      <c r="F267" s="7"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E268" s="12">
+        <v>2932</v>
+      </c>
+      <c r="F268" s="7"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E269" s="12">
+        <v>5302</v>
+      </c>
+      <c r="F269" s="7"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E270" s="12">
+        <v>2456</v>
+      </c>
+      <c r="F270" s="7"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="E271" s="12">
+        <v>1749</v>
+      </c>
+      <c r="F271" s="7"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E272" s="12">
+        <v>4250</v>
+      </c>
+      <c r="F272" s="7"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E273" s="12">
+        <v>3338</v>
+      </c>
+      <c r="F273" s="7"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E274" s="12">
+        <v>890</v>
+      </c>
+      <c r="F274" s="7"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E275" s="12">
+        <v>3111</v>
+      </c>
+      <c r="F275" s="7"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E276" s="12">
+        <v>468</v>
+      </c>
+      <c r="F276" s="7"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" s="12">
+        <v>3870</v>
+      </c>
+      <c r="F277" s="7"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E278" s="12">
+        <v>3144</v>
+      </c>
+      <c r="F278" s="7"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E279" s="12">
+        <v>2406</v>
+      </c>
+      <c r="F279" s="7"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E280" s="12">
+        <v>2763</v>
+      </c>
+      <c r="F280" s="7"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E281" s="12">
+        <v>2177</v>
+      </c>
+      <c r="F281" s="7"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E282" s="12">
+        <v>1760</v>
+      </c>
+      <c r="F282" s="7"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" s="12">
+        <v>3178</v>
+      </c>
+      <c r="F283" s="7"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E284" s="12">
+        <v>2444</v>
+      </c>
+      <c r="F284" s="7"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E285" s="12">
+        <v>1065</v>
+      </c>
+      <c r="F285" s="7"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E286" s="12">
+        <v>3967</v>
+      </c>
+      <c r="F286" s="7"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E287" s="12">
+        <v>3237</v>
+      </c>
+      <c r="F287" s="7"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E288" s="12">
+        <v>3459</v>
+      </c>
+      <c r="F288" s="7"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E289" s="12">
+        <v>3026</v>
+      </c>
+      <c r="F289" s="7"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E290" s="12">
+        <v>2152</v>
+      </c>
+      <c r="F290" s="7"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E291" s="12">
+        <v>1478</v>
+      </c>
+      <c r="F291" s="7"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E292" s="12">
+        <v>3117</v>
+      </c>
+      <c r="F292" s="7"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E293" s="12">
+        <v>3117</v>
+      </c>
+      <c r="F293" s="7"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E294" s="12">
+        <v>422</v>
+      </c>
+      <c r="F294" s="7"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E295" s="12">
+        <v>1034</v>
+      </c>
+      <c r="F295" s="7"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E296" s="12">
+        <v>1143</v>
+      </c>
+      <c r="F296" s="7"/>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B297" s="9"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E297" s="14">
+        <v>2412</v>
+      </c>
+      <c r="F297" s="10"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="11">
+        <v>2230</v>
+      </c>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E299" s="12">
+        <v>3018</v>
+      </c>
+      <c r="F299" s="7"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E300" s="12">
+        <v>2778</v>
+      </c>
+      <c r="F300" s="7"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E301" s="12">
+        <v>2660</v>
+      </c>
+      <c r="F301" s="7"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E302" s="12">
+        <v>1751</v>
+      </c>
+      <c r="F302" s="7"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E303" s="12">
+        <v>5982</v>
+      </c>
+      <c r="F303" s="7"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E304" s="12">
+        <v>145</v>
+      </c>
+      <c r="F304" s="7"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E305" s="12">
+        <v>749</v>
+      </c>
+      <c r="F305" s="7"/>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B306" s="9"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E306" s="14">
+        <v>1760</v>
+      </c>
+      <c r="F306" s="10"/>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E307" s="19">
+        <v>4029</v>
+      </c>
+      <c r="F307" s="20"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E308" s="11">
+        <v>3024</v>
+      </c>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B309" s="6"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E309" s="12">
+        <v>5700</v>
+      </c>
+      <c r="F309" s="7"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B310" s="9"/>
+      <c r="C310" s="9"/>
+      <c r="D310" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E310" s="14">
+        <v>1770</v>
+      </c>
+      <c r="F310" s="10"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E311" s="11">
+        <v>2255</v>
+      </c>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B312" s="6"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E312" s="6">
+        <v>1532</v>
+      </c>
+      <c r="F312" s="7"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E313" s="6">
+        <v>2502</v>
+      </c>
+      <c r="F313" s="7"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E314" s="6">
+        <v>1036</v>
+      </c>
+      <c r="F314" s="7"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E315" s="6">
+        <v>1760</v>
+      </c>
+      <c r="F315" s="7"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E316" s="12">
+        <v>1680</v>
+      </c>
+      <c r="F316" s="7"/>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E317" s="9">
+        <v>793</v>
+      </c>
+      <c r="F317" s="10"/>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="E318" s="21">
+        <v>3901</v>
+      </c>
+      <c r="F318" s="20"/>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B319" s="19"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E319" s="19">
+        <v>4651</v>
+      </c>
+      <c r="F319" s="20"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E320" s="12">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D321" t="s">
+        <v>112</v>
+      </c>
+      <c r="E321">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D322" t="s">
+        <v>559</v>
+      </c>
+      <c r="E322">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D323" t="s">
+        <v>131</v>
+      </c>
+      <c r="E323">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D324" t="s">
+        <v>136</v>
+      </c>
+      <c r="E324">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D325" t="s">
+        <v>114</v>
+      </c>
+      <c r="E325">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D326" t="s">
+        <v>136</v>
+      </c>
+      <c r="E326">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="D327" t="s">
+        <v>399</v>
+      </c>
+      <c r="E327">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
